--- a/biology/Zoologie/Blaireau_d'Amérique/Blaireau_d'Amérique.xlsx
+++ b/biology/Zoologie/Blaireau_d'Amérique/Blaireau_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blaireau_d%27Am%C3%A9rique</t>
+          <t>Blaireau_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taxidea taxus · Blaireau d'Amérique
 Le blaireau d'Amérique (Taxidea taxus) est une espèce de mustélidés. C'est le seul représentant actuel du genre Taxidea.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blaireau_d%27Am%C3%A9rique</t>
+          <t>Blaireau_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique : Taxidea taxus  (Schreber, 1777)[1]
-Nom recommandé ou typique : blaireau d'Amérique[2],[3],[4],[5]
-Autres noms vulgaires (vulgarisation scientifique) ou noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : blaireau américain[2], blaireau Nord-Américain[5], glouton d'Amérique[2] ou encore, à la suite d'une association linguistique erronée[6], carcajou[2]. Il faut donc prendre garde de confondre cette espèce avec le Glouton arctique Gulo gulo, appelé aussi carcajou au Québec[3]. Autrefois, cette espèce a aussi été appelée blaireau du Labrador[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique : Taxidea taxus  (Schreber, 1777)
+Nom recommandé ou typique : blaireau d'Amérique
+Autres noms vulgaires (vulgarisation scientifique) ou noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : blaireau américain, blaireau Nord-Américain, glouton d'Amérique ou encore, à la suite d'une association linguistique erronée, carcajou. Il faut donc prendre garde de confondre cette espèce avec le Glouton arctique Gulo gulo, appelé aussi carcajou au Québec. Autrefois, cette espèce a aussi été appelée blaireau du Labrador.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Blaireau_d%27Am%C3%A9rique</t>
+          <t>Blaireau_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit généralement seul, dans les bois (ou même dans les villes où il trouve à manger dans les poubelles). Il sort de son terrier creusé par ses griffes acérées au crépuscule, pour chasser lapins, souris et tamias, qu'il repère au flair, sa vue étant mauvaise.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Blaireau_d%27Am%C3%A9rique</t>
+          <t>Blaireau_d'Amérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (21 juin 2013)[7] et Catalogue of Life                                   (21 juin 2013)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (21 juin 2013) et Catalogue of Life                                   (21 juin 2013) :
 sous-espèce Taxidea taxus berlandieri (Baird, 1858)
 sous-espèce Taxidea taxus jacksoni (Schantz, 1946)
 sous-espèce Taxidea taxus jeffersonii (Harlan, 1825)
